--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ncam1-Ptprz1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ncam1-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.87620768006301</v>
+        <v>2.541588333333333</v>
       </c>
       <c r="H2">
-        <v>1.87620768006301</v>
+        <v>7.624765</v>
       </c>
       <c r="I2">
-        <v>0.03595211760759241</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="J2">
-        <v>0.03595211760759241</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.597153041253962</v>
+        <v>0.09880833333333333</v>
       </c>
       <c r="N2">
-        <v>0.597153041253962</v>
+        <v>0.296425</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1308359775655526</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1308359775655526</v>
       </c>
       <c r="Q2">
-        <v>1.120383122173667</v>
+        <v>0.2511301072361111</v>
       </c>
       <c r="R2">
-        <v>1.120383122173667</v>
+        <v>2.260170965125</v>
       </c>
       <c r="S2">
-        <v>0.03595211760759241</v>
+        <v>0.005460747409481677</v>
       </c>
       <c r="T2">
-        <v>0.03595211760759241</v>
+        <v>0.005460747409481677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.7140310127191</v>
+        <v>2.541588333333333</v>
       </c>
       <c r="H3">
-        <v>22.7140310127191</v>
+        <v>7.624765</v>
       </c>
       <c r="I3">
-        <v>0.4352489988125159</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="J3">
-        <v>0.4352489988125159</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.597153041253962</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N3">
-        <v>0.597153041253962</v>
+        <v>0.161182</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.07114246280162233</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.07114246280162234</v>
       </c>
       <c r="Q3">
-        <v>13.56375269838202</v>
+        <v>0.1365527635811111</v>
       </c>
       <c r="R3">
-        <v>13.56375269838202</v>
+        <v>1.22897487223</v>
       </c>
       <c r="S3">
-        <v>0.4352489988125159</v>
+        <v>0.002969298098861687</v>
       </c>
       <c r="T3">
-        <v>0.4352489988125159</v>
+        <v>0.002969298098861687</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2.541588333333333</v>
+      </c>
+      <c r="H4">
+        <v>7.624765</v>
+      </c>
+      <c r="I4">
+        <v>0.0417373532195736</v>
+      </c>
+      <c r="J4">
+        <v>0.0417373532195736</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.602672</v>
+      </c>
+      <c r="N4">
+        <v>1.808016</v>
+      </c>
+      <c r="O4">
+        <v>0.7980215596328251</v>
+      </c>
+      <c r="P4">
+        <v>0.7980215596328251</v>
+      </c>
+      <c r="Q4">
+        <v>1.531744124026667</v>
+      </c>
+      <c r="R4">
+        <v>13.78569711624</v>
+      </c>
+      <c r="S4">
+        <v>0.03330730771123024</v>
+      </c>
+      <c r="T4">
+        <v>0.03330730771123024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>22.91769833333333</v>
+      </c>
+      <c r="H5">
+        <v>68.753095</v>
+      </c>
+      <c r="I5">
+        <v>0.376348938092374</v>
+      </c>
+      <c r="J5">
+        <v>0.376348938092374</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.09880833333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.296425</v>
+      </c>
+      <c r="O5">
+        <v>0.1308359775655526</v>
+      </c>
+      <c r="P5">
+        <v>0.1308359775655526</v>
+      </c>
+      <c r="Q5">
+        <v>2.264459576152778</v>
+      </c>
+      <c r="R5">
+        <v>20.380136185375</v>
+      </c>
+      <c r="S5">
+        <v>0.04923998122107339</v>
+      </c>
+      <c r="T5">
+        <v>0.04923998122107339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>22.91769833333333</v>
+      </c>
+      <c r="H6">
+        <v>68.753095</v>
+      </c>
+      <c r="I6">
+        <v>0.376348938092374</v>
+      </c>
+      <c r="J6">
+        <v>0.376348938092374</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.05372733333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.161182</v>
+      </c>
+      <c r="O6">
+        <v>0.07114246280162233</v>
+      </c>
+      <c r="P6">
+        <v>0.07114246280162234</v>
+      </c>
+      <c r="Q6">
+        <v>1.231306817587778</v>
+      </c>
+      <c r="R6">
+        <v>11.08176135829</v>
+      </c>
+      <c r="S6">
+        <v>0.02677439032866678</v>
+      </c>
+      <c r="T6">
+        <v>0.02677439032866678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>22.91769833333333</v>
+      </c>
+      <c r="H7">
+        <v>68.753095</v>
+      </c>
+      <c r="I7">
+        <v>0.376348938092374</v>
+      </c>
+      <c r="J7">
+        <v>0.376348938092374</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.602672</v>
+      </c>
+      <c r="N7">
+        <v>1.808016</v>
+      </c>
+      <c r="O7">
+        <v>0.7980215596328251</v>
+      </c>
+      <c r="P7">
+        <v>0.7980215596328251</v>
+      </c>
+      <c r="Q7">
+        <v>13.81185508994667</v>
+      </c>
+      <c r="R7">
+        <v>124.30669580952</v>
+      </c>
+      <c r="S7">
+        <v>0.3003345665426338</v>
+      </c>
+      <c r="T7">
+        <v>0.3003345665426338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04007766666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.120233</v>
+      </c>
+      <c r="I8">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="J8">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.09880833333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.296425</v>
+      </c>
+      <c r="O8">
+        <v>0.1308359775655526</v>
+      </c>
+      <c r="P8">
+        <v>0.1308359775655526</v>
+      </c>
+      <c r="Q8">
+        <v>0.003960007447222223</v>
+      </c>
+      <c r="R8">
+        <v>0.035640067025</v>
+      </c>
+      <c r="S8">
+        <v>8.610915133570812E-05</v>
+      </c>
+      <c r="T8">
+        <v>8.610915133570812E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04007766666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.120233</v>
+      </c>
+      <c r="I9">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="J9">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.05372733333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.161182</v>
+      </c>
+      <c r="O9">
+        <v>0.07114246280162233</v>
+      </c>
+      <c r="P9">
+        <v>0.07114246280162234</v>
+      </c>
+      <c r="Q9">
+        <v>0.002153266156222222</v>
+      </c>
+      <c r="R9">
+        <v>0.019379395406</v>
+      </c>
+      <c r="S9">
+        <v>4.682211429735043E-05</v>
+      </c>
+      <c r="T9">
+        <v>4.682211429735045E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04007766666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.120233</v>
+      </c>
+      <c r="I10">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="J10">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.602672</v>
+      </c>
+      <c r="N10">
+        <v>1.808016</v>
+      </c>
+      <c r="O10">
+        <v>0.7980215596328251</v>
+      </c>
+      <c r="P10">
+        <v>0.7980215596328251</v>
+      </c>
+      <c r="Q10">
+        <v>0.02415368752533334</v>
+      </c>
+      <c r="R10">
+        <v>0.217383187728</v>
+      </c>
+      <c r="S10">
+        <v>0.0005252145512739534</v>
+      </c>
+      <c r="T10">
+        <v>0.0005252145512739534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>27.5960525443936</v>
-      </c>
-      <c r="H4">
-        <v>27.5960525443936</v>
-      </c>
-      <c r="I4">
-        <v>0.5287988835798917</v>
-      </c>
-      <c r="J4">
-        <v>0.5287988835798917</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.597153041253962</v>
-      </c>
-      <c r="N4">
-        <v>0.597153041253962</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>16.47906670348877</v>
-      </c>
-      <c r="R4">
-        <v>16.47906670348877</v>
-      </c>
-      <c r="S4">
-        <v>0.5287988835798917</v>
-      </c>
-      <c r="T4">
-        <v>0.5287988835798917</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>35.395449</v>
+      </c>
+      <c r="H11">
+        <v>106.186347</v>
+      </c>
+      <c r="I11">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="J11">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.09880833333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.296425</v>
+      </c>
+      <c r="O11">
+        <v>0.1308359775655526</v>
+      </c>
+      <c r="P11">
+        <v>0.1308359775655526</v>
+      </c>
+      <c r="Q11">
+        <v>3.497365323275</v>
+      </c>
+      <c r="R11">
+        <v>31.476287909475</v>
+      </c>
+      <c r="S11">
+        <v>0.07604913978366185</v>
+      </c>
+      <c r="T11">
+        <v>0.07604913978366185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>35.395449</v>
+      </c>
+      <c r="H12">
+        <v>106.186347</v>
+      </c>
+      <c r="I12">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="J12">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.05372733333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.161182</v>
+      </c>
+      <c r="O12">
+        <v>0.07114246280162233</v>
+      </c>
+      <c r="P12">
+        <v>0.07114246280162234</v>
+      </c>
+      <c r="Q12">
+        <v>1.901703086906</v>
+      </c>
+      <c r="R12">
+        <v>17.115327782154</v>
+      </c>
+      <c r="S12">
+        <v>0.04135195225979652</v>
+      </c>
+      <c r="T12">
+        <v>0.04135195225979652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>35.395449</v>
+      </c>
+      <c r="H13">
+        <v>106.186347</v>
+      </c>
+      <c r="I13">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="J13">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.602672</v>
+      </c>
+      <c r="N13">
+        <v>1.808016</v>
+      </c>
+      <c r="O13">
+        <v>0.7980215596328251</v>
+      </c>
+      <c r="P13">
+        <v>0.7980215596328251</v>
+      </c>
+      <c r="Q13">
+        <v>21.331846039728</v>
+      </c>
+      <c r="R13">
+        <v>191.986614357552</v>
+      </c>
+      <c r="S13">
+        <v>0.4638544708276871</v>
+      </c>
+      <c r="T13">
+        <v>0.4638544708276871</v>
       </c>
     </row>
   </sheetData>
